--- a/Team-Data/2008-09/2-9-2008-09.xlsx
+++ b/Team-Data/2008-09/2-9-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,19 +811,19 @@
         <v>1.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
         <v>24</v>
@@ -765,7 +832,7 @@
         <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL2" t="n">
         <v>6</v>
@@ -774,7 +841,7 @@
         <v>4</v>
       </c>
       <c r="AN2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO2" t="n">
         <v>15</v>
@@ -783,7 +850,7 @@
         <v>7</v>
       </c>
       <c r="AQ2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR2" t="n">
         <v>23</v>
@@ -804,7 +871,7 @@
         <v>12</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY2" t="n">
         <v>10</v>
@@ -813,13 +880,13 @@
         <v>7</v>
       </c>
       <c r="BA2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -848,58 +915,58 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" t="n">
         <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>0.788</v>
+        <v>0.792</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J3" t="n">
         <v>77.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.485</v>
+        <v>0.484</v>
       </c>
       <c r="L3" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
         <v>16.8</v>
       </c>
       <c r="N3" t="n">
-        <v>0.392</v>
+        <v>0.389</v>
       </c>
       <c r="O3" t="n">
         <v>20.1</v>
       </c>
       <c r="P3" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.777</v>
+        <v>0.773</v>
       </c>
       <c r="R3" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T3" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U3" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V3" t="n">
         <v>15.7</v>
@@ -908,25 +975,25 @@
         <v>8.4</v>
       </c>
       <c r="X3" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y3" t="n">
         <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
         <v>22.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.8</v>
+        <v>101.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -950,37 +1017,37 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM3" t="n">
         <v>19</v>
       </c>
       <c r="AN3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO3" t="n">
         <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS3" t="n">
         <v>4</v>
       </c>
       <c r="AT3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW3" t="n">
         <v>3</v>
@@ -989,13 +1056,13 @@
         <v>12</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -1030,58 +1097,58 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="n">
         <v>31</v>
       </c>
       <c r="G4" t="n">
-        <v>0.392</v>
+        <v>0.38</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
       </c>
       <c r="I4" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="J4" t="n">
         <v>76.09999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="L4" t="n">
         <v>5.6</v>
       </c>
       <c r="M4" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="N4" t="n">
-        <v>0.362</v>
+        <v>0.361</v>
       </c>
       <c r="O4" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P4" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.739</v>
+        <v>0.741</v>
       </c>
       <c r="R4" t="n">
         <v>10.6</v>
       </c>
       <c r="S4" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="T4" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="U4" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V4" t="n">
         <v>15.6</v>
@@ -1093,34 +1160,34 @@
         <v>4.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z4" t="n">
         <v>22.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>92</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2</v>
+        <v>-2.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
         <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
@@ -1141,13 +1208,13 @@
         <v>18</v>
       </c>
       <c r="AO4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR4" t="n">
         <v>20</v>
@@ -1156,16 +1223,16 @@
         <v>28</v>
       </c>
       <c r="AT4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AU4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV4" t="n">
         <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AX4" t="n">
         <v>18</v>
@@ -1177,13 +1244,13 @@
         <v>23</v>
       </c>
       <c r="BA4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
         <v>29</v>
       </c>
       <c r="G5" t="n">
-        <v>0.42</v>
+        <v>0.431</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
@@ -1230,46 +1297,46 @@
         <v>37.8</v>
       </c>
       <c r="J5" t="n">
-        <v>84.3</v>
+        <v>84</v>
       </c>
       <c r="K5" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L5" t="n">
         <v>6.1</v>
       </c>
       <c r="M5" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N5" t="n">
         <v>0.376</v>
       </c>
       <c r="O5" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="P5" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
         <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U5" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="V5" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W5" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X5" t="n">
         <v>5.7</v>
@@ -1278,31 +1345,31 @@
         <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.2</v>
+        <v>-1.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
@@ -1311,7 +1378,7 @@
         <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL5" t="n">
         <v>19</v>
@@ -1335,16 +1402,16 @@
         <v>7</v>
       </c>
       <c r="AS5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="n">
         <v>13</v>
@@ -1356,16 +1423,16 @@
         <v>28</v>
       </c>
       <c r="AZ5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB5" t="n">
         <v>12</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -1394,61 +1461,61 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" t="n">
         <v>39</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.796</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J6" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L6" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.385</v>
+        <v>0.383</v>
       </c>
       <c r="O6" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P6" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R6" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S6" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T6" t="n">
         <v>41.7</v>
       </c>
       <c r="U6" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V6" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
@@ -1457,28 +1524,28 @@
         <v>5.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.2</v>
+        <v>100.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.2</v>
+        <v>9.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
         <v>3</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
         <v>2</v>
@@ -1487,31 +1554,31 @@
         <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
         <v>5</v>
       </c>
       <c r="AL6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM6" t="n">
         <v>5</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP6" t="n">
         <v>16</v>
       </c>
       <c r="AQ6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AR6" t="n">
         <v>19</v>
@@ -1532,7 +1599,7 @@
         <v>10</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
         <v>4</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
         <v>9</v>
@@ -1663,10 +1730,10 @@
         <v>9</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI7" t="n">
         <v>5</v>
@@ -1699,7 +1766,7 @@
         <v>13</v>
       </c>
       <c r="AS7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
         <v>5</v>
@@ -1711,10 +1778,10 @@
         <v>9</v>
       </c>
       <c r="AW7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY7" t="n">
         <v>8</v>
@@ -1729,7 +1796,7 @@
         <v>11</v>
       </c>
       <c r="BC7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1851,7 +1918,7 @@
         <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="n">
         <v>21</v>
@@ -1860,7 +1927,7 @@
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM8" t="n">
         <v>16</v>
@@ -1899,7 +1966,7 @@
         <v>3</v>
       </c>
       <c r="AY8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
         <v>25</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2091,7 @@
         <v>14</v>
       </c>
       <c r="AF9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG9" t="n">
         <v>14</v>
@@ -2039,7 +2106,7 @@
         <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
         <v>27</v>
@@ -2051,13 +2118,13 @@
         <v>23</v>
       </c>
       <c r="AO9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP9" t="n">
         <v>25</v>
       </c>
       <c r="AQ9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR9" t="n">
         <v>17</v>
@@ -2066,7 +2133,7 @@
         <v>17</v>
       </c>
       <c r="AT9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU9" t="n">
         <v>24</v>
@@ -2087,7 +2154,7 @@
         <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-4.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2221,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
         <v>16</v>
@@ -2245,7 +2312,7 @@
         <v>8</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT10" t="n">
         <v>12</v>
@@ -2254,7 +2321,7 @@
         <v>16</v>
       </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW10" t="n">
         <v>7</v>
@@ -2266,7 +2333,7 @@
         <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA10" t="n">
         <v>2</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -2304,94 +2371,94 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" t="n">
         <v>31</v>
       </c>
       <c r="F11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.596</v>
+        <v>0.608</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J11" t="n">
-        <v>79.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="K11" t="n">
         <v>0.445</v>
       </c>
       <c r="L11" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M11" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="O11" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="P11" t="n">
-        <v>24.6</v>
+        <v>24.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="R11" t="n">
         <v>10.7</v>
       </c>
       <c r="S11" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T11" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U11" t="n">
         <v>20.3</v>
       </c>
       <c r="V11" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W11" t="n">
         <v>6.7</v>
       </c>
       <c r="X11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y11" t="n">
         <v>5.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
         <v>20</v>
@@ -2412,13 +2479,13 @@
         <v>8</v>
       </c>
       <c r="AN11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>5</v>
@@ -2427,10 +2494,10 @@
         <v>18</v>
       </c>
       <c r="AS11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
         <v>21</v>
@@ -2445,16 +2512,16 @@
         <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC11" t="n">
         <v>8</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2573,10 +2640,10 @@
         <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI12" t="n">
         <v>3</v>
@@ -2597,7 +2664,7 @@
         <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP12" t="n">
         <v>20</v>
@@ -2609,7 +2676,7 @@
         <v>14</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
         <v>3</v>
@@ -2630,13 +2697,13 @@
         <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
         <v>11</v>
       </c>
       <c r="BB12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC12" t="n">
         <v>20</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -2668,85 +2735,85 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" t="n">
         <v>12</v>
       </c>
       <c r="F13" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" t="n">
-        <v>0.231</v>
+        <v>0.235</v>
       </c>
       <c r="H13" t="n">
         <v>48.6</v>
       </c>
       <c r="I13" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J13" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="L13" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
         <v>17.5</v>
       </c>
       <c r="N13" t="n">
-        <v>0.338</v>
+        <v>0.34</v>
       </c>
       <c r="O13" t="n">
-        <v>17</v>
+        <v>17.2</v>
       </c>
       <c r="P13" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.753</v>
+        <v>0.755</v>
       </c>
       <c r="R13" t="n">
         <v>11.6</v>
       </c>
       <c r="S13" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="T13" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="U13" t="n">
         <v>20.5</v>
       </c>
       <c r="V13" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X13" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y13" t="n">
         <v>5.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.8</v>
+        <v>94.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>-7.9</v>
+        <v>-7.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2761,7 +2828,7 @@
         <v>6</v>
       </c>
       <c r="AI13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
         <v>8</v>
@@ -2770,22 +2837,22 @@
         <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN13" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AP13" t="n">
         <v>26</v>
       </c>
       <c r="AQ13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR13" t="n">
         <v>11</v>
@@ -2794,7 +2861,7 @@
         <v>24</v>
       </c>
       <c r="AT13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU13" t="n">
         <v>17</v>
@@ -2803,7 +2870,7 @@
         <v>17</v>
       </c>
       <c r="AW13" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2821,7 +2888,7 @@
         <v>27</v>
       </c>
       <c r="BC13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -2850,61 +2917,61 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" t="n">
         <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="J14" t="n">
-        <v>84.40000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.48</v>
+        <v>0.479</v>
       </c>
       <c r="L14" t="n">
         <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.371</v>
+        <v>0.375</v>
       </c>
       <c r="O14" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="P14" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R14" t="n">
         <v>12.3</v>
       </c>
       <c r="S14" t="n">
-        <v>31.6</v>
+        <v>31.8</v>
       </c>
       <c r="T14" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U14" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V14" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W14" t="n">
         <v>8.300000000000001</v>
@@ -2913,22 +2980,22 @@
         <v>5.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>109</v>
+        <v>108.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2958,10 +3025,10 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AO14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP14" t="n">
         <v>5</v>
@@ -2973,7 +3040,7 @@
         <v>4</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2994,7 +3061,7 @@
         <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA14" t="n">
         <v>4</v>
@@ -3003,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -3032,67 +3099,67 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" t="n">
         <v>36</v>
       </c>
       <c r="G15" t="n">
-        <v>0.294</v>
+        <v>0.28</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="J15" t="n">
         <v>77.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="M15" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.336</v>
+        <v>0.339</v>
       </c>
       <c r="O15" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="P15" t="n">
-        <v>25.9</v>
+        <v>25.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R15" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="S15" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="T15" t="n">
-        <v>39</v>
+        <v>38.5</v>
       </c>
       <c r="U15" t="n">
         <v>16.7</v>
       </c>
       <c r="V15" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W15" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y15" t="n">
         <v>5.1</v>
@@ -3101,16 +3168,16 @@
         <v>21.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.3</v>
+        <v>93.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.1</v>
+        <v>-6.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3122,7 +3189,7 @@
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
         <v>29</v>
@@ -3131,7 +3198,7 @@
         <v>28</v>
       </c>
       <c r="AK15" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
         <v>28</v>
@@ -3143,22 +3210,22 @@
         <v>28</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
@@ -3167,7 +3234,7 @@
         <v>18</v>
       </c>
       <c r="AW15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX15" t="n">
         <v>22</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3304,16 +3371,16 @@
         <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
         <v>12</v>
@@ -3352,7 +3419,7 @@
         <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
         <v>6</v>
@@ -3364,7 +3431,7 @@
         <v>25</v>
       </c>
       <c r="BB16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -3399,40 +3466,40 @@
         <v>53</v>
       </c>
       <c r="E17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G17" t="n">
-        <v>0.472</v>
+        <v>0.453</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="J17" t="n">
-        <v>81.40000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L17" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M17" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>0.354</v>
+        <v>0.351</v>
       </c>
       <c r="O17" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="P17" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="Q17" t="n">
         <v>0.785</v>
@@ -3441,37 +3508,37 @@
         <v>12</v>
       </c>
       <c r="S17" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T17" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U17" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="V17" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="W17" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X17" t="n">
         <v>3.7</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3480,22 +3547,22 @@
         <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
         <v>17</v>
       </c>
       <c r="AI17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL17" t="n">
         <v>23</v>
@@ -3522,31 +3589,31 @@
         <v>23</v>
       </c>
       <c r="AT17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW17" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA17" t="n">
         <v>5</v>
       </c>
       <c r="BB17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BC17" t="n">
         <v>16</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
         <v>24</v>
@@ -3680,13 +3747,13 @@
         <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
         <v>18</v>
@@ -3710,7 +3777,7 @@
         <v>18</v>
       </c>
       <c r="AV18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW18" t="n">
         <v>26</v>
@@ -3728,7 +3795,7 @@
         <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC18" t="n">
         <v>24</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -3838,25 +3905,25 @@
         <v>-1.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
         <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK19" t="n">
         <v>27</v>
@@ -3871,13 +3938,13 @@
         <v>8</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR19" t="n">
         <v>12</v>
@@ -3895,7 +3962,7 @@
         <v>11</v>
       </c>
       <c r="AW19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX19" t="n">
         <v>21</v>
@@ -3907,10 +3974,10 @@
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC19" t="n">
         <v>18</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -3942,61 +4009,61 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" t="n">
         <v>30</v>
       </c>
       <c r="F20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>0.612</v>
+        <v>0.625</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="J20" t="n">
-        <v>76.59999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.453</v>
+        <v>0.457</v>
       </c>
       <c r="L20" t="n">
         <v>7.6</v>
       </c>
       <c r="M20" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0.385</v>
+        <v>0.388</v>
       </c>
       <c r="O20" t="n">
         <v>18.7</v>
       </c>
       <c r="P20" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="R20" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S20" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="T20" t="n">
         <v>38.4</v>
       </c>
       <c r="U20" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V20" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W20" t="n">
         <v>7.6</v>
@@ -4005,31 +4072,31 @@
         <v>4.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA20" t="n">
         <v>21.1</v>
       </c>
       <c r="AB20" t="n">
-        <v>95.7</v>
+        <v>96</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AE20" t="n">
         <v>9</v>
       </c>
       <c r="AF20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH20" t="n">
         <v>30</v>
@@ -4041,7 +4108,7 @@
         <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>8</v>
@@ -4050,10 +4117,10 @@
         <v>10</v>
       </c>
       <c r="AN20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
         <v>24</v>
@@ -4065,7 +4132,7 @@
         <v>28</v>
       </c>
       <c r="AS20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT20" t="n">
         <v>30</v>
@@ -4077,25 +4144,25 @@
         <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX20" t="n">
         <v>23</v>
       </c>
       <c r="AY20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ20" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA20" t="n">
         <v>14</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>13</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
       </c>
       <c r="BC20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -4202,19 +4269,19 @@
         <v>-2.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI21" t="n">
         <v>7</v>
@@ -4235,7 +4302,7 @@
         <v>19</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP21" t="n">
         <v>27</v>
@@ -4244,22 +4311,22 @@
         <v>7</v>
       </c>
       <c r="AR21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS21" t="n">
         <v>9</v>
       </c>
       <c r="AT21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU21" t="n">
         <v>9</v>
       </c>
       <c r="AV21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4277,7 +4344,7 @@
         <v>5</v>
       </c>
       <c r="BC21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
         <v>27</v>
@@ -4414,13 +4481,13 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO22" t="n">
         <v>9</v>
       </c>
       <c r="AP22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ22" t="n">
         <v>13</v>
@@ -4453,7 +4520,7 @@
         <v>15</v>
       </c>
       <c r="BA22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB22" t="n">
         <v>21</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>8.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,16 +4645,16 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ23" t="n">
         <v>20</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4599,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="AO23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP23" t="n">
         <v>6</v>
@@ -4608,7 +4675,7 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS23" t="n">
         <v>1</v>
@@ -4623,7 +4690,7 @@
         <v>13</v>
       </c>
       <c r="AW23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX23" t="n">
         <v>10</v>
@@ -4641,7 +4708,7 @@
         <v>7</v>
       </c>
       <c r="BC23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" t="n">
         <v>24</v>
       </c>
       <c r="G24" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
@@ -4688,43 +4755,43 @@
         <v>36.7</v>
       </c>
       <c r="J24" t="n">
-        <v>80.3</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L24" t="n">
         <v>4.3</v>
       </c>
       <c r="M24" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.324</v>
+        <v>0.326</v>
       </c>
       <c r="O24" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P24" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.749</v>
+        <v>0.747</v>
       </c>
       <c r="R24" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="S24" t="n">
         <v>30</v>
       </c>
       <c r="T24" t="n">
-        <v>42.9</v>
+        <v>42.6</v>
       </c>
       <c r="U24" t="n">
         <v>20.7</v>
       </c>
       <c r="V24" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W24" t="n">
         <v>8.1</v>
@@ -4736,19 +4803,19 @@
         <v>4.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA24" t="n">
         <v>21</v>
       </c>
       <c r="AB24" t="n">
-        <v>96.7</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AE24" t="n">
         <v>16</v>
@@ -4760,13 +4827,13 @@
         <v>16</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
         <v>15</v>
       </c>
       <c r="AJ24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK24" t="n">
         <v>11</v>
@@ -4781,13 +4848,13 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="n">
         <v>13</v>
       </c>
       <c r="AQ24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR24" t="n">
         <v>2</v>
@@ -4796,10 +4863,10 @@
         <v>16</v>
       </c>
       <c r="AT24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV24" t="n">
         <v>24</v>
@@ -4808,22 +4875,22 @@
         <v>6</v>
       </c>
       <c r="AX24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY24" t="n">
         <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BB24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" t="n">
         <v>28</v>
       </c>
       <c r="F25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4870,40 +4937,40 @@
         <v>38.7</v>
       </c>
       <c r="J25" t="n">
-        <v>78.3</v>
+        <v>78.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0.494</v>
+        <v>0.496</v>
       </c>
       <c r="L25" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M25" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.381</v>
+        <v>0.384</v>
       </c>
       <c r="O25" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="P25" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="Q25" t="n">
         <v>0.761</v>
       </c>
       <c r="R25" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S25" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T25" t="n">
         <v>41.6</v>
       </c>
       <c r="U25" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V25" t="n">
         <v>16.1</v>
@@ -4915,28 +4982,28 @@
         <v>4.9</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AB25" t="n">
-        <v>104.6</v>
+        <v>104.9</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG25" t="n">
         <v>12</v>
@@ -4960,28 +5027,28 @@
         <v>20</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP25" t="n">
         <v>4</v>
       </c>
       <c r="AQ25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR25" t="n">
         <v>27</v>
       </c>
       <c r="AS25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT25" t="n">
         <v>14</v>
       </c>
       <c r="AU25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV25" t="n">
         <v>29</v>
@@ -4996,16 +5063,16 @@
         <v>7</v>
       </c>
       <c r="AZ25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA25" t="n">
         <v>7</v>
       </c>
       <c r="BB25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E26" t="n">
         <v>31</v>
       </c>
       <c r="F26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G26" t="n">
-        <v>0.633</v>
+        <v>0.62</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="J26" t="n">
-        <v>78.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.464</v>
+        <v>0.461</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O26" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="P26" t="n">
-        <v>25.2</v>
+        <v>24.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.763</v>
+        <v>0.761</v>
       </c>
       <c r="R26" t="n">
         <v>13</v>
@@ -5082,7 +5149,7 @@
         <v>27.8</v>
       </c>
       <c r="T26" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U26" t="n">
         <v>20.2</v>
@@ -5097,43 +5164,43 @@
         <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.2</v>
+        <v>98.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ26" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AK26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
@@ -5145,10 +5212,10 @@
         <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ26" t="n">
         <v>18</v>
@@ -5157,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT26" t="n">
         <v>19</v>
@@ -5175,7 +5242,7 @@
         <v>14</v>
       </c>
       <c r="AY26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
         <v>16</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-9.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
         <v>29</v>
@@ -5312,7 +5379,7 @@
         <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK27" t="n">
         <v>24</v>
@@ -5342,7 +5409,7 @@
         <v>27</v>
       </c>
       <c r="AT27" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AU27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -5500,13 +5567,13 @@
         <v>7</v>
       </c>
       <c r="AL28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM28" t="n">
         <v>7</v>
       </c>
       <c r="AN28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5527,7 +5594,7 @@
         <v>22</v>
       </c>
       <c r="AU28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5728,7 @@
         <v>1</v>
       </c>
       <c r="AE29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF29" t="n">
         <v>24</v>
@@ -5688,10 +5755,10 @@
         <v>21</v>
       </c>
       <c r="AN29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP29" t="n">
         <v>22</v>
@@ -5706,7 +5773,7 @@
         <v>15</v>
       </c>
       <c r="AT29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU29" t="n">
         <v>8</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>2.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
         <v>11</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5888,7 +5955,7 @@
         <v>21</v>
       </c>
       <c r="AT30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -5915,7 +5982,7 @@
         <v>8</v>
       </c>
       <c r="BC30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-7.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
@@ -6037,7 +6104,7 @@
         <v>29</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
         <v>9</v>
@@ -6055,19 +6122,19 @@
         <v>29</v>
       </c>
       <c r="AO31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP31" t="n">
         <v>28</v>
       </c>
       <c r="AQ31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR31" t="n">
         <v>10</v>
       </c>
       <c r="AS31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT31" t="n">
         <v>24</v>
@@ -6088,7 +6155,7 @@
         <v>18</v>
       </c>
       <c r="AZ31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA31" t="n">
         <v>28</v>
@@ -6097,7 +6164,7 @@
         <v>26</v>
       </c>
       <c r="BC31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-9-2008-09</t>
+          <t>2009-02-09</t>
         </is>
       </c>
     </row>
